--- a/similarities/split_global/harmonic_similarity_timestamps_281.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_281.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#', 'F#:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:00:01.440000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:03.744784', '0:00:06.774988')]</t>
+          <t>('0:00:08.460000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:10.840000', '0:02:15.980000')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7/b7', 'Bb:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F:7', 'Bb']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:49.217000', '0:00:55.415000')]</t>
+          <t>('0:02:04.300000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:25.830000', '0:00:32.220000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=49.217']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=25.83']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:22.180000', '0:00:25.400000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:04:42.120000', '0:04:50.060000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=22.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=282.12']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F#:min7', 'B:7', 'E']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min7/A#', 'C:7', 'F:maj']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:05.708194', '0:00:10.061936')]</t>
+          <t>('0:00:24.760000', '0:00:32.420000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:11.100000', '0:01:18.700000')]</t>
+          <t>('0:00:23.980000', '0:00:31.920000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=71.1']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=23.98</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:07.834297', '0:00:15.380782')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:09.640000', '0:00:11.980000')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=7.834297']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.64']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:13.980000', '0:00:21.500000'), ('0:01:19.420000', '0:01:26.020000'), ('0:00:37.540000', '0:00:42.720000')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.560000', '0:00:06.900000'), ('0:02:20.480000', '0:02:25.980000'), ('0:00:40.280000', '0:00:45.520000')]</t>
+          <t>('0:00:32.920657', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=40.28']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min'], ['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000'), ('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:16.240000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.560000', '0:00:06.900000'), ('0:02:20.480000', '0:02:25.980000')]</t>
+          <t>('0:01:17.720000', '0:01:35.680000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:06.200000', '0:00:16.360000')]</t>
+          <t>('0:00:02.900000', '0:00:11.630000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+          <t>('0:00:43.610000', '0:00:45.410000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=6.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=62.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:min/D', 'D:(3,5,b7,b9)', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:36.500000', '0:00:41.660000')]</t>
+          <t>('0:01:30.740000', '0:01:49.700000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:37.640000', '0:01:51')]</t>
+          <t>('0:00:55.260000', '0:01:01')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=36.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=90.74</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=97.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=55.26</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min']]</t>
+          <t>['C:dim7', 'B:min7', 'E:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['G:dim7', 'Eb:min7', 'Ab:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:02.081000', '0:00:10.249000')]</t>
+          <t>('0:00:19.810000', '0:00:22.180000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:24.420000', '0:00:32.620000')]</t>
+          <t>('0:00:13.420000', '0:00:15.110000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=2.081']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=19.81</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=24.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=13.42</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min', 'B:7/A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F:min', 'C', 'F:min', 'F:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+          <t>('0:00:10.780000', '0:00:17.140000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+          <t>('0:00:11.890000', '0:00:19.531000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=11.89</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:19.597664')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:dim7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:14.420000', '0:01:18.760000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:02.360000', '0:01:08.270000')]</t>
+          <t>('0:00:22.125076', '0:00:36.625937')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=74.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=62.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
